--- a/biology/Médecine/Humeur_dépressive/Humeur_dépressive.xlsx
+++ b/biology/Médecine/Humeur_dépressive/Humeur_dépressive.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Humeur_d%C3%A9pressive</t>
+          <t>Humeur_dépressive</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une humeur dépressive est une baisse de moral et une aversion d'activité pouvant affecter le comportement, les émotions et le bien-être physique d'un individu[1]. Cela peut inclure la tristesse, l'anxiété, sentiment de vide, déception, culpabilité, irritabilité, sentiments d'inutilité ou agitation.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une humeur dépressive est une baisse de moral et une aversion d'activité pouvant affecter le comportement, les émotions et le bien-être physique d'un individu. Cela peut inclure la tristesse, l'anxiété, sentiment de vide, déception, culpabilité, irritabilité, sentiments d'inutilité ou agitation.
 L'humeur dépressive peut être un signe de dépression, bien qu'il faille d'autres signes associés.
 </t>
         </is>
